--- a/end-breaker/checklist.xlsx
+++ b/end-breaker/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/end-breaker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/end-breaker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB26A1DE-131F-944C-ADA4-56F1F26C380B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C695FC62-3B5D-8C41-813F-A4309D3026D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{D4C38F6B-314B-414E-B180-11F0F05A9806}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="15780" xr2:uid="{D4C38F6B-314B-414E-B180-11F0F05A9806}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>year</t>
   </si>
@@ -88,6 +88,36 @@
   </si>
   <si>
     <t>Evil Mask, Genealogy of Seekers</t>
+  </si>
+  <si>
+    <t>上級ルールブック　山斬烈槍ランスブルグ</t>
+  </si>
+  <si>
+    <t>Advanced Rulebook: Mountain Slashing Spear Lanceburg</t>
+  </si>
+  <si>
+    <t>advanced_rulebook.jpg</t>
+  </si>
+  <si>
+    <t>パワーアップブック　霊峰天舞アマツカグラ</t>
+  </si>
+  <si>
+    <t>Power-up Book: Reiho Tenmai Amatsukagra</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>powerup.jpg</t>
+  </si>
+  <si>
+    <t>replay3.jpg</t>
+  </si>
+  <si>
+    <t>悠久の王都、福音を運ぶ者たち</t>
+  </si>
+  <si>
+    <t>Eternal Royal Capital, Those Who Carry the Gospel</t>
   </si>
 </sst>
 </file>
@@ -111,9 +141,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -123,8 +162,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A712FB1-3428-F547-87DE-574773533644}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,6 +573,66 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2011</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2011</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2011</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
